--- a/work_list.xlsx
+++ b/work_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF GAMING\Desktop\Training\Smart-Recruiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136483B-2FE9-49CE-B028-2147AF5B3179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A182B20-6AAC-4FC2-A7A6-88EF35B2B8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12072" yWindow="0" windowWidth="10764" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Login page creation</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>http request</t>
+  </si>
+  <si>
+    <t>New Requirements</t>
+  </si>
+  <si>
+    <t>give user friendly handler to give marks according to whatsapp image criteria</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,6 +438,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work_list.xlsx
+++ b/work_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF GAMING\Desktop\Training\Smart-Recruiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A182B20-6AAC-4FC2-A7A6-88EF35B2B8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6171C918-3692-4EB1-84DF-B4E322FBEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12072" yWindow="0" windowWidth="10764" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Login page creation</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>give user friendly handler to give marks according to whatsapp image criteria</t>
+  </si>
+  <si>
+    <t>angular with scss + dot net core union architecture</t>
+  </si>
+  <si>
+    <t>primeflex for styling</t>
+  </si>
+  <si>
+    <t>font awesome icon</t>
   </si>
 </sst>
 </file>
@@ -381,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -446,6 +455,21 @@
         <v>12</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work_list.xlsx
+++ b/work_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF GAMING\Desktop\Training\Smart-Recruiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6171C918-3692-4EB1-84DF-B4E322FBEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A67FB0-2F9D-478A-898F-13BB12407D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12072" yWindow="0" windowWidth="10764" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Login page creation</t>
   </si>
@@ -73,14 +73,76 @@
   </si>
   <si>
     <t>font awesome icon</t>
+  </si>
+  <si>
+    <t>new ideas</t>
+  </si>
+  <si>
+    <t>fixing updates</t>
+  </si>
+  <si>
+    <t>specify deparment and location in job post</t>
+  </si>
+  <si>
+    <t>Extendability</t>
+  </si>
+  <si>
+    <t>use resume parser to extract data, Then using ML head hunting for specific role</t>
+  </si>
+  <si>
+    <t>automatic email generate for interview schedules</t>
+  </si>
+  <si>
+    <t>Interview feedback form</t>
+  </si>
+  <si>
+    <t>consider about sensitive data encryption process</t>
+  </si>
+  <si>
+    <t>Linkedin profile require</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>Frameworks and tools</t>
+  </si>
+  <si>
+    <t>Interview scheduling with calander integration</t>
+  </si>
+  <si>
+    <t>statical dashboard</t>
+  </si>
+  <si>
+    <t>available internship period for candidate</t>
+  </si>
+  <si>
+    <t>available date for the candidater</t>
+  </si>
+  <si>
+    <t>26/07 meeting</t>
+  </si>
+  <si>
+    <t>give each interviewer to separate evaluation sliders and take the average</t>
+  </si>
+  <si>
+    <t>evaluation criteria values going to be different for job to job. So, give appropriate value according to interviewing job (in sliders)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,19 +518,101 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/work_list.xlsx
+++ b/work_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF GAMING\Desktop\Training\Smart-Recruiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E495314-9B37-448B-8D31-E2D5C2B452DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845DBDDD-1614-4A19-940C-D0A8F48CF654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Login page creation</t>
   </si>
@@ -135,7 +135,16 @@
     <t>connection from one interviewer to another interviewer (1st, 2nd, 3rd round connection)</t>
   </si>
   <si>
-    <t>Use set of applicants as one single sission (bundle group of applicants)</t>
+    <t>Use set of applicants as one single session (bundle group of applicants)</t>
+  </si>
+  <si>
+    <t>13/08/ fixes</t>
+  </si>
+  <si>
+    <t>clean the code of candidate storing backend end point (role id should take from query params)</t>
+  </si>
+  <si>
+    <t>admin dashboard dropdown update with job close functionality</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,6 +646,19 @@
         <v>36</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
